--- a/release/train/ca_data/300365614.pdf.xlsx
+++ b/release/train/ca_data/300365614.pdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cinnamon\nlp_live_demo\bidding documents\ca_open_bid_電力\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaowh/Downloads/bidding_document_dataset/release/train/ca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95E7A80-93BC-4D33-8375-F47C4EDDE854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD19BE5C-755C-A245-8BFD-1CAD8C88842A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="187">
   <si>
     <t>Page No</t>
   </si>
@@ -1085,20 +1085,20 @@
   <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="69.77734375" customWidth="1"/>
+    <col min="2" max="2" width="69.83203125" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="8" width="34.21875" customWidth="1"/>
+    <col min="7" max="8" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -1870,11 +1870,9 @@
       <c r="F36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -1893,11 +1891,9 @@
       <c r="F37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -1917,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -1963,7 +1959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -1989,7 +1985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -2009,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -2061,7 +2057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -2081,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -2101,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -2121,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -2141,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -2161,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -2181,7 +2177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -2201,7 +2197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -2221,7 +2217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -2241,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -2261,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -2321,7 +2317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -2341,7 +2337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2</v>
       </c>
@@ -2361,7 +2357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -2381,7 +2377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2</v>
       </c>
@@ -2401,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -2421,7 +2417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2</v>
       </c>
@@ -2441,7 +2437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -2461,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -2481,7 +2477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2</v>
       </c>
@@ -2501,7 +2497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2</v>
       </c>
@@ -2521,7 +2517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2</v>
       </c>
@@ -2541,7 +2537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2</v>
       </c>
@@ -2561,7 +2557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2</v>
       </c>
@@ -2581,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2</v>
       </c>
@@ -2601,7 +2597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2</v>
       </c>
@@ -2641,7 +2637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2</v>
       </c>
@@ -2661,7 +2657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -2721,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -2741,7 +2737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>3</v>
       </c>
@@ -2761,7 +2757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -2781,7 +2777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -2801,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -2821,7 +2817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -2841,7 +2837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -2861,7 +2857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>3</v>
       </c>
@@ -2881,7 +2877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -2901,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>3</v>
       </c>
@@ -2927,7 +2923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -2953,7 +2949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>3</v>
       </c>
@@ -2979,7 +2975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>3</v>
       </c>
@@ -3005,7 +3001,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>3</v>
       </c>
@@ -3031,7 +3027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>3</v>
       </c>
@@ -3051,7 +3047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>3</v>
       </c>
@@ -3071,7 +3067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>3</v>
       </c>
@@ -3091,7 +3087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>3</v>
       </c>
@@ -3111,7 +3107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>3</v>
       </c>
@@ -3129,7 +3125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -3149,7 +3145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3175,7 +3171,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>3</v>
       </c>
@@ -3201,7 +3197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>3</v>
       </c>
@@ -3221,7 +3217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -3247,7 +3243,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>3</v>
       </c>
@@ -3273,7 +3269,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>3</v>
       </c>
@@ -3299,7 +3295,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>3</v>
       </c>
@@ -3319,7 +3315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>3</v>
       </c>
@@ -3339,7 +3335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>3</v>
       </c>
@@ -3359,7 +3355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>3</v>
       </c>
@@ -3379,7 +3375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>3</v>
       </c>
@@ -3399,7 +3395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>3</v>
       </c>
@@ -3419,7 +3415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>3</v>
       </c>
@@ -3439,7 +3435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>3</v>
       </c>
@@ -3459,7 +3455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>3</v>
       </c>
@@ -3479,7 +3475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>3</v>
       </c>
@@ -3499,7 +3495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>3</v>
       </c>
@@ -3519,7 +3515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>4</v>
       </c>
@@ -3539,7 +3535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>4</v>
       </c>
@@ -3559,7 +3555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>4</v>
       </c>
@@ -3579,7 +3575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>4</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>4</v>
       </c>
@@ -3619,7 +3615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>4</v>
       </c>
@@ -3639,7 +3635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>4</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>4</v>
       </c>
@@ -3679,7 +3675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>4</v>
       </c>
@@ -3699,7 +3695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>4</v>
       </c>
@@ -3719,7 +3715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>4</v>
       </c>
@@ -3739,7 +3735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>4</v>
       </c>
@@ -3759,7 +3755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>4</v>
       </c>
@@ -3779,7 +3775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>4</v>
       </c>
@@ -3799,7 +3795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>4</v>
       </c>
@@ -3819,7 +3815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>4</v>
       </c>
@@ -3839,7 +3835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>4</v>
       </c>
@@ -3859,7 +3855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>4</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>4</v>
       </c>
@@ -3899,7 +3895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>4</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>4</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>4</v>
       </c>
@@ -3959,7 +3955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>4</v>
       </c>
@@ -3979,7 +3975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>4</v>
       </c>
@@ -3999,7 +3995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -4019,7 +4015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>4</v>
       </c>
@@ -4039,7 +4035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4059,7 +4055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>4</v>
       </c>
@@ -4079,7 +4075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>4</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>4</v>
       </c>
@@ -4119,7 +4115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>4</v>
       </c>
@@ -4139,7 +4135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>4</v>
       </c>
@@ -4159,7 +4155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>4</v>
       </c>
@@ -4179,7 +4175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>4</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>4</v>
       </c>
@@ -4219,7 +4215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>4</v>
       </c>
@@ -4239,7 +4235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>4</v>
       </c>
@@ -4259,7 +4255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>4</v>
       </c>
@@ -4279,7 +4275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>4</v>
       </c>
@@ -4299,7 +4295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>5</v>
       </c>
@@ -4319,7 +4315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>5</v>
       </c>
@@ -4339,7 +4335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>5</v>
       </c>
@@ -4359,7 +4355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>5</v>
       </c>
@@ -4379,7 +4375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>5</v>
       </c>
@@ -4399,7 +4395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>5</v>
       </c>
